--- a/components/NovakBrandy_Time.Estimation.xlsx
+++ b/components/NovakBrandy_Time.Estimation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brandy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brandy/Novak_Brandy_Portfolio/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="740" windowWidth="23340" windowHeight="14280"/>
+    <workbookView xWindow="8620" yWindow="460" windowWidth="23060" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Week 1 / Phase 1</t>
   </si>
@@ -104,13 +104,35 @@
   </si>
   <si>
     <t>Time Difference (Hours)</t>
+  </si>
+  <si>
+    <t>Estimated Cost</t>
+  </si>
+  <si>
+    <t>Actual Cost</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Total Estimated Cost</t>
+  </si>
+  <si>
+    <t>Total Actual Cost</t>
+  </si>
+  <si>
+    <t>Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +162,20 @@
       <color theme="0"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +194,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -198,17 +238,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -325,11 +354,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -337,10 +380,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -357,23 +398,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -381,7 +425,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -390,53 +434,112 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -476,6 +579,11 @@
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFA9C3FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -806,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -823,44 +931,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="38">
+      <c r="A3" s="13">
         <v>201602</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="I4" s="1"/>
       <c r="K4"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
@@ -870,32 +982,38 @@
       <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="F5" s="60" t="s">
+        <v>31</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="61">
+        <v>45</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="A7" s="34"/>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
         <v>1.5</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <f>C7-D7</f>
         <v>0.5</v>
       </c>
@@ -903,439 +1021,656 @@
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="14">
-        <v>2</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12">
         <v>1.5</v>
       </c>
-      <c r="E8" s="13">
-        <f t="shared" ref="E8:E14" si="0">C8-D8</f>
+      <c r="E8" s="11">
+        <f t="shared" ref="E8:E13" si="0">C8-D8</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="12">
-        <v>2</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>4</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>2.5</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10">
         <v>1.5</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>3</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>1.5</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="12">
-        <v>2</v>
-      </c>
-      <c r="D13" s="12">
-        <v>2</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="C14" s="12">
+        <v>2</v>
+      </c>
+      <c r="D14" s="12">
         <v>1</v>
       </c>
-      <c r="E14" s="14">
-        <f t="shared" si="0"/>
+      <c r="E14" s="12">
+        <f t="shared" ref="E14" si="1">C14-D14</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="32">
+        <f>C7+C8+C9+C10+C11+C12+C13+C14</f>
+        <v>18.5</v>
+      </c>
+      <c r="D15" s="32">
+        <f>D7+D8+D9+D10+D11+D12+D13+D14</f>
+        <v>12</v>
+      </c>
+      <c r="E15" s="32">
+        <f>C15-D15</f>
+        <v>6.5</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="44">
+        <f>C15*F6</f>
+        <v>832.5</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="47">
+        <f>D15*F6</f>
+        <v>540</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10">
         <v>1.5</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D20" s="10">
         <v>1</v>
       </c>
-      <c r="E17" s="12">
-        <f t="shared" ref="E17:E22" si="1">C17-D17</f>
+      <c r="E20" s="10">
+        <f t="shared" ref="E20:E25" si="2">C20-D20</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="10" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="40"/>
+      <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="14">
-        <v>2</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="C21" s="12">
+        <v>2</v>
+      </c>
+      <c r="D21" s="12">
         <v>1.5</v>
       </c>
-      <c r="E18" s="13">
-        <f t="shared" si="1"/>
+      <c r="E21" s="11">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="9" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="40"/>
+      <c r="B22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="12">
-        <v>2</v>
-      </c>
-      <c r="D19" s="12">
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10">
         <v>1</v>
       </c>
-      <c r="E19" s="12">
-        <f t="shared" si="1"/>
+      <c r="E22" s="10">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="10" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="40"/>
+      <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="14">
-        <v>2</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="C23" s="12">
+        <v>2</v>
+      </c>
+      <c r="D23" s="12">
         <v>0.5</v>
       </c>
-      <c r="E20" s="13">
-        <f t="shared" si="1"/>
+      <c r="E23" s="11">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="9" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="40"/>
+      <c r="B24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="12">
-        <v>2</v>
-      </c>
-      <c r="D21" s="12">
-        <v>2</v>
-      </c>
-      <c r="E21" s="12">
-        <f t="shared" si="1"/>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="10" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="40"/>
+      <c r="B25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="14">
-        <v>2</v>
-      </c>
-      <c r="D22" s="14">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="11" t="s">
-        <v>2</v>
-      </c>
       <c r="C25" s="12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D25" s="12">
         <v>1</v>
       </c>
-      <c r="E25" s="12">
-        <f>C25-D25</f>
+      <c r="E25" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="40"/>
+      <c r="B26" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="32">
+        <f>C20+C21+C22+C23+C24+C25</f>
+        <v>11.5</v>
+      </c>
+      <c r="D26" s="32">
+        <f>D20+D21+D22+D23+D24+D25</f>
+        <v>7</v>
+      </c>
+      <c r="E26" s="32">
+        <f>C26-D26</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="40"/>
+      <c r="B27" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="44">
+        <f>C26*F6</f>
+        <v>517.5</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="40"/>
+      <c r="B28" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="44">
+        <f>D26*F6</f>
+        <v>315</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
+      <c r="B31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10">
+        <f>C31-D31</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="10" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="14">
-        <v>2</v>
-      </c>
-      <c r="D26" s="14">
+      <c r="C32" s="12">
+        <v>2</v>
+      </c>
+      <c r="D32" s="12">
         <v>1.5</v>
       </c>
-      <c r="E26" s="13">
-        <f>C26-D26</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="12">
-        <v>2</v>
-      </c>
-      <c r="D27" s="12">
-        <v>2</v>
-      </c>
-      <c r="E27" s="12">
-        <f>C27-D27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="14">
-        <v>2</v>
-      </c>
-      <c r="D28" s="14">
-        <v>2</v>
-      </c>
-      <c r="E28" s="13">
-        <f>C28-D28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="12">
-        <v>2</v>
-      </c>
-      <c r="D29" s="12">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12">
-        <f>C29-D29</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D32" s="12">
-        <v>1</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="E32" s="11">
         <f>C32-D32</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
-      <c r="B33" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="14">
-        <v>2</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13">
+      <c r="B33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+      <c r="D33" s="10">
+        <v>2</v>
+      </c>
+      <c r="E33" s="10">
         <f>C33-D33</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="28"/>
-      <c r="B34" s="9" t="s">
-        <v>18</v>
+      <c r="B34" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C34" s="12">
         <v>2</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12">
+      <c r="D34" s="12">
+        <v>2</v>
+      </c>
+      <c r="E34" s="11">
         <f>C34-D34</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="28"/>
-      <c r="B35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="14">
-        <v>2</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="13">
+      <c r="B35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="10">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10">
         <f>C35-D35</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="28"/>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="32">
+        <f>C31+C32+C33+C34+C35</f>
+        <v>9.5</v>
+      </c>
+      <c r="D36" s="32">
+        <f>D31+D32+D33+D34+D35</f>
+        <v>7.5</v>
+      </c>
+      <c r="E36" s="32">
+        <f>C36-D36</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="B37" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="44">
+        <f>C36*F6</f>
+        <v>427.5</v>
+      </c>
+      <c r="D37" s="45"/>
+      <c r="E37" s="46"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="44">
+        <f>D36*F6</f>
+        <v>337.5</v>
+      </c>
+      <c r="D38" s="45"/>
+      <c r="E38" s="46"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="25"/>
+      <c r="B41" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10">
+        <f>C41-D41</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="26"/>
+      <c r="B42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="12">
+        <v>2</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E42" s="11">
+        <f>C42-D42</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="26"/>
+      <c r="B43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="10">
+        <v>2</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="10">
+        <f>C43-D43</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="26"/>
+      <c r="B44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="12">
+        <v>2</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E44" s="11">
+        <f>C44-D44</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="26"/>
+      <c r="B45" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="12">
-        <v>2</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12">
-        <f>C36-D36</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
+      <c r="C45" s="10">
+        <v>2</v>
+      </c>
+      <c r="D45" s="10">
+        <v>2</v>
+      </c>
+      <c r="E45" s="10">
+        <f>C45-D45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="26"/>
+      <c r="B46" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="32">
+        <f>C41+C42+C43+C44+C45</f>
+        <v>9.5</v>
+      </c>
+      <c r="D46" s="32">
+        <f>D41+D42+D43+D44+D45</f>
+        <v>6.5</v>
+      </c>
+      <c r="E46" s="32">
+        <f>C46-D46</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="26"/>
+      <c r="B47" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="44">
+        <f>C46*F6</f>
+        <v>427.5</v>
+      </c>
+      <c r="D47" s="45"/>
+      <c r="E47" s="46"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="26"/>
+      <c r="B48" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="44">
+        <f>D46*F6</f>
+        <v>292.5</v>
+      </c>
+      <c r="D48" s="45"/>
+      <c r="E48" s="46"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="33"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="43"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="51"/>
+      <c r="C50" s="44">
+        <f>C16+C27+C37+C47</f>
+        <v>2205</v>
+      </c>
+      <c r="D50" s="45"/>
+      <c r="E50" s="46"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="51"/>
+      <c r="C51" s="44">
+        <f>C17+C28+C38+C48</f>
+        <v>1485</v>
+      </c>
+      <c r="D51" s="45"/>
+      <c r="E51" s="46"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
+  <mergeCells count="27">
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="E1:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
